--- a/spliced/falling/2023-03-25_17-55-55/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-55/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.5307044386863708</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.4794178009033203</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.04423999786377</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2169336676597595</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-55-55/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-55/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7179374694824219</v>
+        <v>0.5757570266723633</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8143949508666992</v>
+        <v>-0.6172752380371094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3482142686843872</v>
+        <v>-0.5019410252571106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5368337631225586</v>
+        <v>0.4425497055053711</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.205713748931885</v>
+        <v>-0.6991405487060547</v>
       </c>
       <c r="C3" t="n">
-        <v>1.448910713195801</v>
+        <v>-0.699306845664978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1711635589599609</v>
+        <v>0.3754444122314453</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.118285655975342</v>
+        <v>-0.6968369483947754</v>
       </c>
       <c r="C4" t="n">
-        <v>2.145041465759277</v>
+        <v>-0.6064528226852417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2017207145690918</v>
+        <v>0.4661340713500976</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.242213249206543</v>
+        <v>-0.7378168106079102</v>
       </c>
       <c r="C5" t="n">
-        <v>2.87759017944336</v>
+        <v>-0.8263083696365356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.174193859100342</v>
+        <v>0.3465394973754883</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.213449716567993</v>
+        <v>-0.7457756996154785</v>
       </c>
       <c r="C6" t="n">
-        <v>2.043629169464112</v>
+        <v>-0.6906525492668152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.267188549041748</v>
+        <v>0.1021490097045898</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.465161085128784</v>
+        <v>-0.7542791366577148</v>
       </c>
       <c r="C7" t="n">
-        <v>2.441758394241333</v>
+        <v>-0.5537225604057312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.827628612518311</v>
+        <v>0.2407388687133789</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.444296360015869</v>
+        <v>-0.6835846900939941</v>
       </c>
       <c r="C8" t="n">
-        <v>1.300557613372803</v>
+        <v>-0.2614910900592804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.013436794281006</v>
+        <v>0.7179374694824219</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.781657457351685</v>
+        <v>-0.8143949508666992</v>
       </c>
       <c r="C9" t="n">
-        <v>1.157623410224915</v>
+        <v>0.3482142686843872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.23094367980957</v>
+        <v>0.5368337631225586</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.233789682388306</v>
+        <v>-1.205713748931885</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.820952653884888</v>
+        <v>1.448910713195801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23.2268295288086</v>
+        <v>0.1711635589599609</v>
       </c>
       <c r="B11" t="n">
-        <v>-21.41561698913575</v>
+        <v>-1.118285655975342</v>
       </c>
       <c r="C11" t="n">
-        <v>-21.18720245361328</v>
+        <v>2.145041465759277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.458966255187988</v>
+        <v>-0.2017207145690918</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9571634531021118</v>
+        <v>-1.242213249206543</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.108598947525024</v>
+        <v>2.87759017944336</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.693714141845703</v>
+        <v>-1.174193859100342</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.90864372253418</v>
+        <v>-2.213449716567993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4882011413574219</v>
+        <v>2.043629169464112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.7738790512084961</v>
+        <v>-2.267188549041748</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2492363452911377</v>
+        <v>-3.465161085128784</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.26715350151062</v>
+        <v>2.441758394241333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.673647880554199</v>
+        <v>-3.827628612518311</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3179191350936889</v>
+        <v>-2.444296360015869</v>
       </c>
       <c r="C15" t="n">
-        <v>1.958111882209778</v>
+        <v>1.300557613372803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6818609237670898</v>
+        <v>-4.013436794281006</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.483997821807861</v>
+        <v>-1.781657457351685</v>
       </c>
       <c r="C16" t="n">
-        <v>1.116373777389526</v>
+        <v>1.157623410224915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.090703964233398</v>
+        <v>-6.23094367980957</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7039613127708435</v>
+        <v>-1.233789682388306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7109836339950562</v>
+        <v>-1.820952653884888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.377178192138672</v>
+        <v>23.2268295288086</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5982787609100342</v>
+        <v>-21.41561698913575</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2494584619998932</v>
+        <v>-21.18720245361328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.309194564819336</v>
+        <v>-2.458966255187988</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.633804559707642</v>
+        <v>-0.9571634531021118</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4874744415283203</v>
+        <v>-1.108598947525024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3532924652099609</v>
+        <v>1.693714141845703</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.432539701461792</v>
+        <v>-1.90864372253418</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3063055276870727</v>
+        <v>0.4882011413574219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.7738790512084961</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2492363452911377</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.26715350151062</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.673647880554199</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3179191350936889</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.958111882209778</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6818609237670898</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.483997821807861</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.116373777389526</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.090703964233398</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.7039613127708435</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7109836339950562</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.377178192138672</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5982787609100342</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2494584619998932</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.309194564819336</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.633804559707642</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4874744415283203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3532924652099609</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.432539701461792</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.3063055276870727</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>0.4603271484375</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-0.7004889249801636</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>-0.5307044386863708</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.4794178009033203</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.04423999786377</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2169336676597595</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1147146224975586</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.7852307558059692</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0405309796333313</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0877876281738281</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.7322115302085876</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.3498360514640808</v>
       </c>
     </row>
   </sheetData>
